--- a/export/T_SOL_summary_Mast.xlsx
+++ b/export/T_SOL_summary_Mast.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
   <si>
     <t>Description</t>
   </si>
@@ -175,6 +175,168 @@
   </si>
   <si>
     <t>-97.71 ± 100.05</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Latency to AB</t>
+  </si>
+  <si>
+    <t>AB Rel. to Sunrise</t>
+  </si>
+  <si>
+    <t>Latency to QB</t>
+  </si>
+  <si>
+    <t>QB Rel. to Sunset</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>46.55 ± 28.80</t>
+  </si>
+  <si>
+    <t>65.47 ± 67.26</t>
+  </si>
+  <si>
+    <t>105.03 ± 122.98</t>
+  </si>
+  <si>
+    <t>-168.34 ± 111.07</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>40.04 ± 42.62</t>
+  </si>
+  <si>
+    <t>63.58 ± 99.22</t>
+  </si>
+  <si>
+    <t>93.05 ± 113.22</t>
+  </si>
+  <si>
+    <t>-102.75 ± 91.86</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>37.85 ± 26.53</t>
+  </si>
+  <si>
+    <t>-22.16 ± 26.17</t>
+  </si>
+  <si>
+    <t>57.86 ± 63.95</t>
+  </si>
+  <si>
+    <t>-18.79 ± 57.10</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>41.11 ± 36.74</t>
+  </si>
+  <si>
+    <t>45.42 ± 88.64</t>
+  </si>
+  <si>
+    <t>88.26 ± 108.37</t>
+  </si>
+  <si>
+    <t>-100.10 ± 103.83</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Latency to AB</t>
+  </si>
+  <si>
+    <t>AB Rel. to Sunrise</t>
+  </si>
+  <si>
+    <t>Latency to QB</t>
+  </si>
+  <si>
+    <t>QB Rel. to Sunset</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>NaN ± NaN</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>47.21 ± 30.09</t>
+  </si>
+  <si>
+    <t>58.72 ± 68.03</t>
+  </si>
+  <si>
+    <t>90.17 ± 113.51</t>
+  </si>
+  <si>
+    <t>-137.56 ± 96.61</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>33.79 ± 34.87</t>
+  </si>
+  <si>
+    <t>60.91 ± 68.89</t>
+  </si>
+  <si>
+    <t>80.50 ± 92.15</t>
+  </si>
+  <si>
+    <t>-81.92 ± 76.38</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>30.55 ± 12.44</t>
+  </si>
+  <si>
+    <t>-21.12 ± 18.70</t>
+  </si>
+  <si>
+    <t>41.82 ± 33.58</t>
+  </si>
+  <si>
+    <t>-10.62 ± 52.95</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>37.25 ± 31.27</t>
+  </si>
+  <si>
+    <t>45.69 ± 69.94</t>
+  </si>
+  <si>
+    <t>76.54 ± 93.67</t>
+  </si>
+  <si>
+    <t>-85.98 ± 90.32</t>
   </si>
 </sst>
 </file>
@@ -195,7 +357,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -205,14 +367,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,7 +393,7 @@
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="true"/>
     <col min="2" max="2" width="10.7109375" customWidth="true"/>
-    <col min="3" max="3" width="14.140625" customWidth="true"/>
+    <col min="3" max="3" width="13.140625" customWidth="true"/>
     <col min="4" max="4" width="12.140625" customWidth="true"/>
     <col min="5" max="5" width="12.85546875" customWidth="true"/>
     <col min="6" max="6" width="12.140625" customWidth="true"/>
@@ -235,102 +401,102 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
